--- a/Cards.xlsx
+++ b/Cards.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\card_dnd\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FD8E2F-6C6F-43AE-85AB-21886FF45666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="3270" windowWidth="21840" windowHeight="13140" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="3276" windowWidth="21840" windowHeight="13140" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="Regular Cards" sheetId="1" r:id="rId1"/>
     <sheet name="Other Cards" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,26 +28,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={8EFAEBF7-734D-475A-AFA1-A5728487D3F4}</author>
-  </authors>
-  <commentList>
-    <comment ref="G39" authorId="0" shapeId="0" xr:uid="{8EFAEBF7-734D-475A-AFA1-A5728487D3F4}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    "SCM" refers to spellcasting modifier (INT for wizards, CHA for sorcerers, etc.)</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="212">
   <si>
     <t>Description</t>
   </si>
@@ -534,30 +511,9 @@
     <t>DEX</t>
   </si>
   <si>
-    <t>INT, WIS, CHA</t>
-  </si>
-  <si>
     <t>CHA</t>
   </si>
   <si>
-    <t>CON, STR, INT</t>
-  </si>
-  <si>
-    <t>STR, DEX</t>
-  </si>
-  <si>
-    <t>WIS, CHA</t>
-  </si>
-  <si>
-    <t>WIS, CON</t>
-  </si>
-  <si>
-    <t>WIS, DEX</t>
-  </si>
-  <si>
-    <t>WIS, STR</t>
-  </si>
-  <si>
     <t>Light</t>
   </si>
   <si>
@@ -614,18 +570,6 @@
     <t>Shocking Grasp</t>
   </si>
   <si>
-    <t>SCM, WIS</t>
-  </si>
-  <si>
-    <t>SCM, CON</t>
-  </si>
-  <si>
-    <t>SCM, STR</t>
-  </si>
-  <si>
-    <t>SCM, DEX</t>
-  </si>
-  <si>
     <t>Burning Hands</t>
   </si>
   <si>
@@ -944,9 +888,6 @@
     <t>Longstrider</t>
   </si>
   <si>
-    <t>WIS, INT</t>
-  </si>
-  <si>
     <t>Floating Disk</t>
   </si>
   <si>
@@ -1064,15 +1005,6 @@
     <t>INT</t>
   </si>
   <si>
-    <t>INT, STR</t>
-  </si>
-  <si>
-    <t>INT, DEX</t>
-  </si>
-  <si>
-    <t>INT, WIS</t>
-  </si>
-  <si>
     <t>Consume 10 gp worth of ink to write a message that appears indecipherable to all except those you declare when you cast the spelll. The message disappears after 10 days.</t>
   </si>
   <si>
@@ -3229,13 +3161,16 @@
   </si>
   <si>
     <t>WIZ</t>
+  </si>
+  <si>
+    <t>Transmutation 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3317,12 +3252,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Middleton, Benjamin (middlebo)" id="{FF05A1E4-4BC8-4D3B-B967-564176F4E1A8}" userId="S::middlebo@mail.uc.edu::7d1d74f5-87f5-49d0-8341-fe711057a3e3" providerId="AD"/>
-</personList>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3366,7 +3295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3401,7 +3330,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3578,29 +3507,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G39" dT="2020-06-24T04:09:34.94" personId="{FF05A1E4-4BC8-4D3B-B967-564176F4E1A8}" id="{8EFAEBF7-734D-475A-AFA1-A5728487D3F4}">
-    <text>"SCM" refers to spellcasting modifier (INT for wizards, CHA for sorcerers, etc.)</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -3610,7 +3531,7 @@
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3618,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -3633,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3644,7 +3565,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
         <v>53</v>
@@ -3653,10 +3574,10 @@
         <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3667,7 +3588,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
         <v>53</v>
@@ -3679,7 +3600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3690,19 +3611,19 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3713,7 +3634,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E5" t="s">
         <v>53</v>
@@ -3722,10 +3643,10 @@
         <v>70</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3733,22 +3654,22 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3756,22 +3677,22 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3779,22 +3700,22 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3802,22 +3723,22 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3825,22 +3746,22 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3848,22 +3769,22 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3871,22 +3792,22 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -3894,22 +3815,22 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3917,22 +3838,22 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3940,33 +3861,33 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3975,10 +3896,10 @@
         <v>72</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3986,45 +3907,45 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -4032,56 +3953,56 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4090,10 +4011,10 @@
         <v>72</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -4101,68 +4022,68 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>72</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -4173,7 +4094,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E25" t="s">
         <v>53</v>
@@ -4185,7 +4106,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -4196,19 +4117,19 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E26" t="s">
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -4219,20 +4140,20 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -4243,20 +4164,20 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -4267,20 +4188,20 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>56</v>
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -4291,20 +4212,20 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>57</v>
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -4315,20 +4236,20 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -4339,20 +4260,20 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -4363,20 +4284,20 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>59</v>
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -4387,20 +4308,20 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -4411,20 +4332,20 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E35">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -4435,20 +4356,20 @@
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E36">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -4459,20 +4380,20 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E37">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -4483,20 +4404,20 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E38">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -4504,45 +4425,45 @@
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -4550,735 +4471,735 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
       <c r="F44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
         <v>93</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>104</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D72" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -5295,13 +5216,13 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -5318,13 +5239,13 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -5341,7 +5262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>67</v>
       </c>
@@ -5358,13 +5279,13 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -5381,13 +5302,13 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>65</v>
       </c>
@@ -5407,91 +5328,90 @@
         <v>70</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D79" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s">
         <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D80" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D81" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D055EE-7994-4D86-B563-2973AFDC45C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
@@ -5502,7 +5422,7 @@
     <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5510,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -5525,9 +5445,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -5545,13 +5465,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -5568,18 +5488,18 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -5603,12 +5523,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -5626,13 +5546,13 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -5649,13 +5569,13 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>65</v>
       </c>
@@ -5675,24 +5595,24 @@
         <v>70</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -5701,53 +5621,53 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="B13" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Cards.xlsx
+++ b/Cards.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="206">
   <si>
     <t>Description</t>
   </si>
@@ -341,12 +341,6 @@
     </r>
   </si>
   <si>
-    <t>Level Available</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Acid Splash</t>
   </si>
   <si>
@@ -496,9 +490,6 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>STR</t>
   </si>
   <si>
@@ -2859,15 +2850,6 @@
       </rPr>
       <t>Inflict Wound. Exhaust.</t>
     </r>
-  </si>
-  <si>
-    <t>Starter Cards</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Racial Cards</t>
   </si>
   <si>
     <t>Feature Cards</t>
@@ -3515,10 +3497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3527,11 +3509,10 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3539,22 +3520,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3565,19 +3543,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3588,19 +3563,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3611,19 +3583,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3634,19 +3603,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3654,22 +3620,19 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>198</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3677,22 +3640,19 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3700,22 +3660,19 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>198</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3723,22 +3680,19 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>198</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3746,22 +3700,19 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>199</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3769,22 +3720,19 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>198</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3792,22 +3740,19 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>198</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -3815,22 +3760,19 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>198</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3838,22 +3780,19 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3861,45 +3800,39 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>198</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>198</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3907,45 +3840,39 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>198</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3953,68 +3880,59 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>198</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>198</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -4022,68 +3940,59 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>198</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>198</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -4094,19 +4003,16 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -4117,19 +4023,16 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -4140,20 +4043,17 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -4164,20 +4064,17 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>208</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -4188,20 +4085,17 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -4212,20 +4106,17 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -4236,20 +4127,17 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>208</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -4260,20 +4148,17 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -4284,20 +4169,17 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>208</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -4308,20 +4190,17 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>208</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -4332,20 +4211,17 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>208</v>
-      </c>
-      <c r="E35">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -4356,20 +4232,17 @@
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>208</v>
-      </c>
-      <c r="E36">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -4380,20 +4253,17 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
-      </c>
-      <c r="E37">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -4404,802 +4274,697 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>208</v>
-      </c>
-      <c r="E38">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>209</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>209</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>83</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>209</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-      <c r="F44" t="s">
-        <v>83</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>133</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="E45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="E46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>83</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="E47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>83</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="E48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>83</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="E49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="E50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
-        <v>83</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="E51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>199</v>
+      </c>
+      <c r="E52" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>83</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="E53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="E54" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
         <v>83</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
-        <v>86</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>209</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>83</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="E56" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" t="s">
-        <v>83</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="E57" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="E58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>133</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="E59" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="E60" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
         <v>104</v>
       </c>
-      <c r="B61" t="s">
-        <v>107</v>
-      </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>209</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>83</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="E61" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D62" t="s">
-        <v>209</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="E62" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D63" t="s">
-        <v>209</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>210</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
-        <v>133</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>204</v>
+      </c>
+      <c r="E64" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" t="s">
+        <v>204</v>
+      </c>
+      <c r="E65" t="s">
+        <v>130</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
         <v>118</v>
-      </c>
-      <c r="C65" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" t="s">
-        <v>210</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>133</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s">
-        <v>121</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>204</v>
+      </c>
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
-        <v>210</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
-        <v>133</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>204</v>
+      </c>
+      <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
         <v>19</v>
       </c>
       <c r="C68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s">
         <v>106</v>
       </c>
-      <c r="D68" t="s">
-        <v>210</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68" t="s">
-        <v>72</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>124</v>
-      </c>
-      <c r="B69" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" t="s">
         <v>109</v>
       </c>
-      <c r="D69" t="s">
-        <v>210</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="D70" t="s">
+        <v>204</v>
+      </c>
+      <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
         <v>133</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" t="s">
-        <v>112</v>
-      </c>
-      <c r="D70" t="s">
-        <v>210</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>133</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>136</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D71" t="s">
-        <v>210</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
-        <v>133</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>204</v>
+      </c>
+      <c r="E71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
-        <v>210</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
-        <v>133</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>204</v>
+      </c>
+      <c r="E72" t="s">
+        <v>130</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -5212,17 +4977,14 @@
       <c r="D73" t="s">
         <v>4</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73" t="s">
-        <v>70</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="E73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -5235,17 +4997,14 @@
       <c r="D74" t="s">
         <v>4</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74" t="s">
-        <v>71</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="E74" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -5255,16 +5014,13 @@
       <c r="C75" t="s">
         <v>10</v>
       </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -5273,21 +5029,18 @@
         <v>10</v>
       </c>
       <c r="D76" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
         <v>64</v>
-      </c>
-      <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>70</v>
-      </c>
-      <c r="G76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
-        <v>66</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -5296,21 +5049,18 @@
         <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" t="s">
-        <v>70</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -5319,82 +5069,70 @@
         <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>70</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D79" t="s">
-        <v>210</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="G79" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>204</v>
+      </c>
+      <c r="F79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B80" t="s">
         <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D80" t="s">
-        <v>210</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>133</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>204</v>
+      </c>
+      <c r="E80" t="s">
+        <v>130</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D81" t="s">
-        <v>210</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>133</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
+      </c>
+      <c r="E81" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5405,10 +5143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5423,251 +5161,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>88</v>
+        <v>130</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="E11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Cards.xlsx
+++ b/Cards.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="271">
   <si>
     <t>Description</t>
   </si>
@@ -2265,12 +2265,6 @@
     <t>Arcane Ward</t>
   </si>
   <si>
-    <t>Abjuration X</t>
-  </si>
-  <si>
-    <t>Divination X</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Declare a card name and target a creature within 60 feet. They discard all copies of the card in their hand. </t>
     </r>
@@ -2287,9 +2281,6 @@
     </r>
   </si>
   <si>
-    <t>Evocation X</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Create a 20-foot radius sphere of thick fog centered within 120 feet for one hour. Creatures can only see through 5 feet of thick fog. </t>
     </r>
@@ -3302,24 +3293,15 @@
     <t>TODO: new storm sorcery feature(s)</t>
   </si>
   <si>
-    <t>Druid 2</t>
-  </si>
-  <si>
     <t>Feypicked 2</t>
   </si>
   <si>
     <t>Storm Sorcery 2</t>
   </si>
   <si>
-    <t>Sorcerer 2</t>
-  </si>
-  <si>
     <t>Metamagic 2</t>
   </si>
   <si>
-    <t>Wizard 2</t>
-  </si>
-  <si>
     <t>Evocation 2</t>
   </si>
   <si>
@@ -3814,6 +3796,15 @@
       </rPr>
       <t xml:space="preserve"> card</t>
     </r>
+  </si>
+  <si>
+    <t>Core Druid</t>
+  </si>
+  <si>
+    <t>Core Sorcerer</t>
+  </si>
+  <si>
+    <t>Core Wizard</t>
   </si>
 </sst>
 </file>
@@ -4157,7 +4148,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4167,8 +4158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4188,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -4211,7 +4202,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
         <v>65</v>
@@ -4231,7 +4222,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
         <v>66</v>
@@ -4251,7 +4242,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
@@ -4271,7 +4262,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
         <v>65</v>
@@ -4288,10 +4279,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
@@ -4308,10 +4299,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
@@ -4328,16 +4319,16 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
         <v>67</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4348,10 +4339,10 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
         <v>67</v>
@@ -4368,10 +4359,10 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
         <v>78</v>
@@ -4388,10 +4379,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
         <v>65</v>
@@ -4408,10 +4399,10 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
         <v>68</v>
@@ -4428,10 +4419,10 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E13" t="s">
         <v>68</v>
@@ -4448,16 +4439,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
         <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4468,16 +4459,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4488,16 +4479,16 @@
         <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4508,10 +4499,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
@@ -4528,16 +4519,16 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E18" t="s">
         <v>78</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4548,10 +4539,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
         <v>78</v>
@@ -4568,10 +4559,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
@@ -4588,10 +4579,10 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
@@ -4608,16 +4599,16 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E22" t="s">
         <v>78</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4628,10 +4619,10 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
@@ -4647,11 +4638,11 @@
       <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="C24">
-        <v>2</v>
+      <c r="C24" t="s">
+        <v>268</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E24" t="s">
         <v>67</v>
@@ -4671,7 +4662,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
@@ -4691,13 +4682,13 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E26" t="s">
         <v>65</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4708,10 +4699,10 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E27" t="s">
         <v>69</v>
@@ -4729,10 +4720,10 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
         <v>69</v>
@@ -4750,10 +4741,10 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D29" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E29" t="s">
         <v>69</v>
@@ -4771,10 +4762,10 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
         <v>69</v>
@@ -4792,10 +4783,10 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E31" t="s">
         <v>69</v>
@@ -4813,10 +4804,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E32" t="s">
         <v>69</v>
@@ -4834,10 +4825,10 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E33" t="s">
         <v>69</v>
@@ -4855,10 +4846,10 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D34" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E34" t="s">
         <v>69</v>
@@ -4876,10 +4867,10 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E35" t="s">
         <v>69</v>
@@ -4897,10 +4888,10 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E36" t="s">
         <v>69</v>
@@ -4918,10 +4909,10 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E37" t="s">
         <v>69</v>
@@ -4939,10 +4930,10 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E38" t="s">
         <v>69</v>
@@ -4960,10 +4951,10 @@
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D39" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E39" t="s">
         <v>78</v>
@@ -4980,10 +4971,10 @@
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E40" t="s">
         <v>78</v>
@@ -5000,16 +4991,16 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
         <v>78</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5020,10 +5011,10 @@
         <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s">
         <v>66</v>
@@ -5040,10 +5031,10 @@
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E43" t="s">
         <v>78</v>
@@ -5059,11 +5050,11 @@
       <c r="B44" t="s">
         <v>18</v>
       </c>
-      <c r="C44">
-        <v>2</v>
+      <c r="C44" t="s">
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E44" t="s">
         <v>78</v>
@@ -5080,10 +5071,10 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E45" t="s">
         <v>114</v>
@@ -5100,10 +5091,10 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E46" t="s">
         <v>68</v>
@@ -5120,10 +5111,10 @@
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E47" t="s">
         <v>78</v>
@@ -5140,10 +5131,10 @@
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E48" t="s">
         <v>78</v>
@@ -5160,10 +5151,10 @@
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D49" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E49" t="s">
         <v>78</v>
@@ -5180,16 +5171,16 @@
         <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E50" t="s">
         <v>78</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5200,10 +5191,10 @@
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E51" t="s">
         <v>78</v>
@@ -5220,10 +5211,10 @@
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E52" t="s">
         <v>68</v>
@@ -5240,10 +5231,10 @@
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D53" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E53" t="s">
         <v>78</v>
@@ -5260,10 +5251,10 @@
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E54" t="s">
         <v>78</v>
@@ -5280,10 +5271,10 @@
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E55" t="s">
         <v>78</v>
@@ -5300,16 +5291,16 @@
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E56" t="s">
         <v>78</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5320,10 +5311,10 @@
         <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E57" t="s">
         <v>78</v>
@@ -5340,16 +5331,16 @@
         <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D58" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E58" t="s">
         <v>78</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5360,10 +5351,10 @@
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E59" t="s">
         <v>114</v>
@@ -5380,16 +5371,16 @@
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D60" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E60" t="s">
         <v>78</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5400,10 +5391,10 @@
         <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D61" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E61" t="s">
         <v>78</v>
@@ -5420,16 +5411,16 @@
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E62" t="s">
         <v>78</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5440,10 +5431,10 @@
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E63" t="s">
         <v>66</v>
@@ -5460,10 +5451,10 @@
         <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D64" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E64" t="s">
         <v>114</v>
@@ -5483,7 +5474,7 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E65" t="s">
         <v>114</v>
@@ -5500,10 +5491,10 @@
         <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E66" t="s">
         <v>65</v>
@@ -5520,10 +5511,10 @@
         <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E67" t="s">
         <v>114</v>
@@ -5540,10 +5531,10 @@
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D68" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E68" t="s">
         <v>67</v>
@@ -5560,10 +5551,10 @@
         <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E69" t="s">
         <v>114</v>
@@ -5580,10 +5571,10 @@
         <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E70" t="s">
         <v>114</v>
@@ -5600,10 +5591,10 @@
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E71" t="s">
         <v>114</v>
@@ -5620,10 +5611,10 @@
         <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D72" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E72" t="s">
         <v>114</v>
@@ -5649,7 +5640,7 @@
         <v>65</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5669,7 +5660,7 @@
         <v>66</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5691,7 +5682,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -5706,7 +5697,7 @@
         <v>68</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5726,7 +5717,7 @@
         <v>65</v>
       </c>
       <c r="F77" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5771,19 +5762,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B80" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C80" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D80" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F80" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5793,14 +5784,11 @@
       <c r="B81" t="s">
         <v>95</v>
       </c>
-      <c r="C81" t="s">
-        <v>162</v>
-      </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F81" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5810,17 +5798,14 @@
       <c r="B82" t="s">
         <v>18</v>
       </c>
-      <c r="C82" t="s">
-        <v>163</v>
-      </c>
       <c r="D82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E82" t="s">
         <v>114</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5830,17 +5815,14 @@
       <c r="B83" t="s">
         <v>18</v>
       </c>
-      <c r="C83" t="s">
-        <v>165</v>
-      </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E83" t="s">
         <v>114</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5854,7 +5836,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5872,16 +5854,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -5893,73 +5875,73 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" t="s">
         <v>194</v>
-      </c>
-      <c r="E2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" t="s">
         <v>198</v>
-      </c>
-      <c r="B3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5967,83 +5949,83 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" t="s">
         <v>238</v>
-      </c>
-      <c r="C8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6051,96 +6033,96 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" t="s">
         <v>186</v>
       </c>
-      <c r="B14" t="s">
-        <v>189</v>
-      </c>
       <c r="C14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" t="s">
         <v>221</v>
       </c>
-      <c r="B15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C15" t="s">
-        <v>228</v>
-      </c>
-      <c r="D15" t="s">
-        <v>224</v>
-      </c>
       <c r="E15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" t="s">
         <v>223</v>
       </c>
-      <c r="B16" t="s">
-        <v>268</v>
-      </c>
-      <c r="C16" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E16" t="s">
-        <v>226</v>
-      </c>
       <c r="F16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" t="s">
         <v>224</v>
       </c>
-      <c r="E17" t="s">
-        <v>227</v>
-      </c>
       <c r="F17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" t="s">
         <v>265</v>
       </c>
-      <c r="C18" t="s">
-        <v>271</v>
-      </c>
       <c r="E18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6148,39 +6130,39 @@
         <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F19" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C20" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F20" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/Cards.xlsx
+++ b/Cards.xlsx
@@ -5906,7 +5906,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5916,8 +5916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
